--- a/data/trans_dic/P19F$tarde-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19F$tarde-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.266879806508252</v>
+        <v>0.2684982346453113</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.24461536772271</v>
+        <v>0.2439559561443492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.268197769508968</v>
+        <v>0.2683241469175962</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.367767483102171</v>
+        <v>0.3662259542208869</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3362944505730327</v>
+        <v>0.3384751761886551</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3411316529116494</v>
+        <v>0.3371321680595225</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2841303950669805</v>
+        <v>0.2791371844510088</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3062929428503569</v>
+        <v>0.3031700151863378</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3033293531681873</v>
+        <v>0.3068889817140402</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3683099833358423</v>
+        <v>0.3629661803010578</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3882590613692388</v>
+        <v>0.3858526060941352</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3635640393705624</v>
+        <v>0.3640379629792853</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2906781914409714</v>
+        <v>0.2933031669177459</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.30443955009115</v>
+        <v>0.3080772969718888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3135433305936027</v>
+        <v>0.3116031544494644</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3905071710221221</v>
+        <v>0.3886952350499788</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4067954103942405</v>
+        <v>0.4059072011696953</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3819884911368923</v>
+        <v>0.3775363507101604</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.217339859424633</v>
+        <v>0.2158817634873034</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2408218187390008</v>
+        <v>0.2477382210403302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2416543237267063</v>
+        <v>0.2397355711811474</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2990694938344038</v>
+        <v>0.2976187159764913</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3311277992397427</v>
+        <v>0.3378201012507568</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3024614828965698</v>
+        <v>0.2982814312695443</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2876208458826624</v>
+        <v>0.2827161440561978</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2981978331198438</v>
+        <v>0.2969727946231023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2987374664765745</v>
+        <v>0.2984832007950673</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3320003318384314</v>
+        <v>0.3286034965603585</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3443798131105271</v>
+        <v>0.3445186690514644</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3315101294988779</v>
+        <v>0.3293800994754632</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>96805</v>
+        <v>97392</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>92012</v>
+        <v>91764</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>198166</v>
+        <v>198259</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>133400</v>
+        <v>132841</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>126497</v>
+        <v>127317</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>252055</v>
+        <v>249100</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>160019</v>
+        <v>157207</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>165577</v>
+        <v>163889</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>334807</v>
+        <v>338736</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>207428</v>
+        <v>204418</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>209887</v>
+        <v>208586</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>401292</v>
+        <v>401815</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>117083</v>
+        <v>118140</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>116832</v>
+        <v>118228</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>246619</v>
+        <v>245093</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>157294</v>
+        <v>156564</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>156113</v>
+        <v>155772</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>300455</v>
+        <v>296953</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>97820</v>
+        <v>97164</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>106453</v>
+        <v>109510</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>215585</v>
+        <v>213873</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>134605</v>
+        <v>133952</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>146372</v>
+        <v>149330</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>269832</v>
+        <v>266103</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>511617</v>
+        <v>502893</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>519621</v>
+        <v>517486</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1051953</v>
+        <v>1051058</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>590559</v>
+        <v>584517</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>600095</v>
+        <v>600337</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1167356</v>
+        <v>1159856</v>
       </c>
     </row>
     <row r="24">
